--- a/Grafico_lineas/pension65_tasas.xlsx
+++ b/Grafico_lineas/pension65_tasas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEMO 123\Desktop\kto\10\ASIE\Mapas\Grafico_lineas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD99114-099F-4DDF-BB05-C60395A5E551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A15794-FC49-4359-BD79-3673C4590968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{694892C1-9E52-4E63-9505-8B349BC86F35}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Beneficiarios_Crecimiento</t>
-  </si>
-  <si>
-    <t>Monto_Crecimiento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Beneficiarios</t>
   </si>
@@ -51,6 +45,18 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t>Monto_absoluto</t>
+  </si>
+  <si>
+    <t>Beneficiarios_absolutos</t>
+  </si>
+  <si>
+    <t>Ingreso_absoluto</t>
   </si>
 </sst>
 </file>
@@ -402,37 +408,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D599E3-B4A1-4FAE-9BB4-5469975718D3}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -442,8 +455,11 @@
       <c r="C2">
         <v>306213</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>231.82850138346353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -454,13 +470,19 @@
         <v>449850</v>
       </c>
       <c r="D3">
+        <v>260.83426570892334</v>
+      </c>
+      <c r="E3">
         <v>50.567881020136277</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>46.907544748263462</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>12.51173352386119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -471,13 +493,19 @@
         <v>501681</v>
       </c>
       <c r="D4">
+        <v>283.0970408121745</v>
+      </c>
+      <c r="E4">
         <v>12.777012126422694</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11.521840613537845</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>8.535218730845429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -488,13 +516,19 @@
         <v>502972</v>
       </c>
       <c r="D5">
+        <v>267.74234135945636</v>
+      </c>
+      <c r="E5">
         <v>6.028910523829965</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.25733484026702225</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>-5.4238290194299381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -505,13 +539,19 @@
         <v>545508</v>
       </c>
       <c r="D6">
+        <v>275.59635925292969</v>
+      </c>
+      <c r="E6">
         <v>4.3432612184391992</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8.4569319962145002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2.9334239230129637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -522,13 +562,19 @@
         <v>544202</v>
       </c>
       <c r="D7">
+        <v>314.01682472229004</v>
+      </c>
+      <c r="E7">
         <v>3.4733620277379242</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.23940987116595905</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>13.940846524064495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -539,13 +585,19 @@
         <v>561349</v>
       </c>
       <c r="D8">
+        <v>345.33165677388507</v>
+      </c>
+      <c r="E8">
         <v>1.0189367118561972</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.1508520733110132</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>9.9723421123340188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -556,13 +608,19 @@
         <v>558014</v>
       </c>
       <c r="D9">
+        <v>286.16415913899738</v>
+      </c>
+      <c r="E9">
         <v>19.158209321243699</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.59410455883950986</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>-17.133528442667263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -573,13 +631,19 @@
         <v>568599</v>
       </c>
       <c r="D10">
+        <v>326.5793348948161</v>
+      </c>
+      <c r="E10">
         <v>14.32877311943972</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.8969058123989722</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>14.123073929809646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -590,27 +654,16 @@
         <v>627924</v>
       </c>
       <c r="D11">
+        <v>401.57772699991864</v>
+      </c>
+      <c r="E11">
         <v>-20.447095357878911</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10.433539278120433</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12">
-        <v>627924000</v>
-      </c>
-      <c r="C12">
-        <v>627924</v>
-      </c>
-      <c r="D12">
-        <v>-29.310505443215142</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="G11">
+        <v>22.96483092822081</v>
       </c>
     </row>
   </sheetData>
